--- a/Шустов/test-case.xlsx
+++ b/Шустов/test-case.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
   <si>
     <t>Версия ОС</t>
   </si>
@@ -394,22 +394,13 @@
 2. Скопировать и открыть ссылку в новой вкладке.                                                               ОР: Откроется построенный маршрут.</t>
   </si>
   <si>
-    <t>Карта города изменилась на карту города, которую я выбрал</t>
-  </si>
-  <si>
     <t>Passed</t>
   </si>
   <si>
-    <t>При нажатии на + карта увеличилась. При нажатии на - карта уменьшилась</t>
-  </si>
-  <si>
     <t>При выборе станций цвет кружка остаётся серым.</t>
   </si>
   <si>
     <t>Failed</t>
-  </si>
-  <si>
-    <t>Появится выпадающий список с доступными языками. Язык интерфейса изменился на выбранный, панель обновилась</t>
   </si>
   <si>
     <t>Кружки у станций остались серыми</t>
@@ -1863,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1942,11 +1933,9 @@
       <c r="F3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="8"/>
+      <c r="H3" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>38</v>
       </c>
       <c r="I3" s="10"/>
     </row>
@@ -1969,11 +1958,9 @@
       <c r="F4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>39</v>
-      </c>
+      <c r="G4" s="14"/>
       <c r="H4" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I4" s="16"/>
     </row>
@@ -1997,10 +1984,10 @@
         <v>20</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I5" s="16"/>
     </row>
@@ -2023,11 +2010,9 @@
       <c r="F6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="14" t="s">
-        <v>42</v>
-      </c>
+      <c r="G6" s="14"/>
       <c r="H6" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I6" s="16"/>
     </row>
@@ -2051,10 +2036,10 @@
         <v>20</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I7" s="16"/>
     </row>
@@ -2078,10 +2063,10 @@
         <v>20</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I8" s="16"/>
     </row>
